--- a/TC01_Nationality8.xlsx
+++ b/TC01_Nationality8.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6385D943-375A-496F-8150-A566ECA7884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Admin</t>
   </si>
@@ -45,13 +46,16 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>Mexicans124</t>
+    <t>s</t>
+  </si>
+  <si>
+    <t>sdfsdfsdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,12 +134,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -146,6 +151,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -194,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +235,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,6 +287,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,22 +479,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
     <col min="3" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -469,7 +511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -483,12 +525,15 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -496,24 +541,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
